--- a/TK/PSP/poraba_casa.xlsx
+++ b/TK/PSP/poraba_casa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EF0425C-479C-498D-A3B5-582A4656401E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -54,58 +55,46 @@
     <t>x</t>
   </si>
   <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>Pisanje testov</t>
-  </si>
-  <si>
-    <t>Testi za asList()</t>
-  </si>
-  <si>
-    <t>Pisanje metod</t>
-  </si>
-  <si>
-    <t>Metode asList()</t>
-  </si>
-  <si>
-    <t>Testi za binomsko kopico</t>
-  </si>
-  <si>
-    <t>Metode add, depth, size, isEmpty</t>
-  </si>
-  <si>
-    <t>Pisanje metod BK</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>Metode remove, removeFirst, getFirst, asList</t>
-  </si>
-  <si>
-    <t>Dopolnitev testov za BK</t>
-  </si>
-  <si>
-    <t>Testi za SeznamUV</t>
-  </si>
-  <si>
-    <t>Dopolnitev SeznamUV</t>
-  </si>
-  <si>
     <t>Beležka porabe časa</t>
   </si>
   <si>
     <t>Ime: Simon Korošec</t>
   </si>
   <si>
-    <t>Datum začetka: 19.4.2018</t>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>Razred Oseba</t>
+  </si>
+  <si>
+    <t>Pisanje Testov</t>
+  </si>
+  <si>
+    <t>Kodiranje</t>
+  </si>
+  <si>
+    <t>Pisanje testov za Bin. Kopico</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>Datum začetka: 28.05.2018</t>
+  </si>
+  <si>
+    <t>Pisanje testov za SeznamUV</t>
+  </si>
+  <si>
+    <t>Dopolnitev binomske kopice</t>
+  </si>
+  <si>
+    <t>Prilagoditev SeznamUV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +167,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -473,30 +462,30 @@
     <col min="3" max="3" width="9.140625" style="5"/>
     <col min="4" max="4" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -533,32 +522,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E9" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K9" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,219 +557,162 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>0.73611111111111116</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E11" s="2">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
+        <v>0.71875</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>35</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="E12" s="2">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="F12" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>85</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
-        <v>180</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1"/>
       <c r="K12" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="42.75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E13" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="1">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.72916666666666663</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>30</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
-        <v>30</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="1">
-        <v>40</v>
-      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>35</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
